--- a/biology/Histoire de la zoologie et de la botanique/Wilhelm_Barthlott/Wilhelm_Barthlott.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Wilhelm_Barthlott/Wilhelm_Barthlott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Barthlott, né en 1946 à Forst (Bade-Wurtemberg), est un botaniste et chercheur en bionique allemand.
 Les domaines d'activité de Wilhelm Barthlott sont la systématique et la recherche sur la biodiversité avec comme axe essentiel l'écosystème et la répartition de la biodiversité dans son ensemble. Dans le domaine de la bionique il est reconnu comme l'un des pionniers de la recherche en matière de surfaces biologiques et biomimétiques. À partir de ses travaux de recherche systématique par le biais de la microscopie électronique sur les surfaces des plantes, il a développé des surfaces techniquement auto-nettoyantes (effet Lotus) et, dans les dernières années, des surfaces qui sous l'eau retiennent l'air de façon permanente (effet Salvinia). Ces dernières conduisent à un tournant significatif dans certains domaines de la science des matériaux et ont permis le développement de surfaces biomimétiques superhydrophobes. Commercialisées sous la marque "Lotus-Effect" elles représentent un véritable succès économique.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Barthlott fait des études de biologie à l'université de Heidelberg, avec comme matières secondaires, la physique, la chimie et la géographie. En 1973 il passe sa thèse de doctorat sur la systématique et la biogéographie des cactees épiphytes. Il obtient alors un poste à l'université libre de Berlin et y est de 1982 à 1985 chef de département à l’Institut botanique. En 1985 il obtient une chaire à l'université de Bonn et prend les fonctions de directeur de l’Institut botanique et du Jardin botanique. De 2003 à 2011 il est directeur et gérant du Nees-Institut für Biodiversität der Pflanzen ainsi que directeur du Jardin botanique de l’université de Bonn, deux institutions qu’il s’est employé à restructurer et à agrandir de façon durable.
 Barthlott est Professeur émérite depuis 2011, mais a continué à diriger également jusqu’à son terme en 2014 l'Unité de recherche « Biodiversität im Wandel » , un projet à long terme de l’Académie des sciences et des lettres de Mayence. En 2011 il a fondé avec Walter Erdelen (UNESCO) le réseau Biodiversité de Bonn BION (Biodiversity Network Bonn BION), lequel est depuis 2013 implémenté par son successeur Maximilian Weigend. Il dirige les travaux destinés à transposer ses découvertes nommées Effet Lotus et Effet Salvinia dans le cadre d’actuels projets de recherche.
@@ -544,7 +558,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Recherche en Biodiversité et écologie tropicale
 De vastes travaux de recherche, avant tout dans les Andes d’Amérique du Sud avec de nombreux travaux sur la taxonomie et la morphologie des cactees, des orchidées et broméliacées à l’aide de l’analyse des structures de leur surface grâce au microscope électronique à balayage. Travaux également sur la structure et l’état de la végétation à Madagascar et en Afrique de l’Ouest tropicale ainsi que pour expliquer les mécanismes qui dirigent et répartissent la biodiversité dans les Tropiques. Études des modèles d’écosystèmes tropicaux comme par ex. ceux des inselberg tropicaux et des plantes épiphytes au sommet des forêts tropicales. Les travaux actuels se concentrent avant tout sur la cartographie topographique de la biodiversité à l’échelle mondiale et les dépendances macro-écologiques que celle-ci engendre. Sa mappemonde de la biodiversité est entretemps reprise dans de nombreux livres d’école traitant de biologie et de géographie. Dans le cadre du projet sur l’Afrique BMBF-BIOTA, ont été analysés les différents exemples de biodiversité existant en Afrique pour en extrapoler un modèle à l’échelle du continent et les conséquences possibles de la mutation du climat.
@@ -581,7 +597,9 @@
           <t>Honneurs et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1990 Membre de l’Académie des sciences et des lettres de Mayence
 1991 FLS (Foreign Member)  Linnean Society of London
@@ -627,11 +645,47 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La liste des publications de Wilhelm Barthlott comprend plus de 440 papiers. On peut en trouver la liste complète sous www.lotus-salvinia.de ou bien sous Wilhelm Barthlott Google Scholar Citations.
-Sélection
-avec Mathias Mail, Bharat Bhushan et Kerstin Koch : (en) « Plant Surfaces: Structures and Functions for Biomimetic Innovations », Nano-Micro Letters, vol. 9, no 23,‎ 2017 (lire en ligne ).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La liste des publications de Wilhelm Barthlott comprend plus de 440 papiers. On peut en trouver la liste complète sous www.lotus-salvinia.de ou bien sous Wilhelm Barthlott Google Scholar Citations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Wilhelm_Barthlott</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wilhelm_Barthlott</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>avec Mathias Mail, Bharat Bhushan et Kerstin Koch : (en) « Plant Surfaces: Structures and Functions for Biomimetic Innovations », Nano-Micro Letters, vol. 9, no 23,‎ 2017 (lire en ligne ).
 avec M. Daud Rafiqpoor et Walter R. Erdelen : (en) « Bionics and Biodiversity – Bio-inspired Technical Innovation for a Sustainable Future », dans J. Knippers (dir.), Biomimetic Research for Architecture: Biologically-Inspired Systems, Springer, 2016 (lire en ligne ), p. 11-55.
 avec M. Daud Rafiqpoor : (de) « Biodiversität im Wandel – Globale Muster der Artenvielfalt », dans Jose L. Lozán (dir.), Warnsignal Klima: Die Biodiversität, Alfred Wegener Institut, 2016, p. 44-50.
 avec Jasmin Obholzer et M. Daud Rafiqpoor  : (de) Pflanzen der Heiligen Bücher Bibel und Koran, Bonn, Bundesamt für Naturschutz, coll. « BfN Skripten » (no 448), 2016, 106 p. (lire en ligne).
